--- a/biology/Zoologie/Antirrhea_adoptiva/Antirrhea_adoptiva.xlsx
+++ b/biology/Zoologie/Antirrhea_adoptiva/Antirrhea_adoptiva.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antirrhea adoptiva est une espèce de lépidoptères (papillons) de la famille des Nymphalidés et du genre Antirrhea.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Antirrhea adoptiva a été décrite par Gustav Weymer en 1909 sous le nom initial de Sinarista adoptiva[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Antirrhea adoptiva a été décrite par Gustav Weymer en 1909 sous le nom initial de Sinarista adoptiva.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Antirrhea adoptiva adoptiva présent en Colombie.
 Antirrhea adoptiva porphyrosticta Watkins, 1928 ; présent en Équateur
 Antirrhea adoptiva ssp ; présent au Venezuela.
-Antirrhea adoptiva ssp ; présent au Pérou[1].</t>
+Antirrhea adoptiva ssp ; présent au Pérou.</t>
         </is>
       </c>
     </row>
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,12 +616,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antirrhea adoptiva est présent au Venezuela, en Colombie, en Équateur et au Pérou.
+</t>
         </is>
       </c>
     </row>
@@ -633,10 +654,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antirrhea adoptiva est présent au Venezuela, en Colombie, en Équateur et au Pérou[1].
-Biotope
-Protection
-Pas de statut de protection particulier
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 Sur les autres projets Wikimedia :
 Antirrhea adoptiva, sur Wikimedia CommonsAntirrhea adoptiva, sur Wikispecies
 </t>
